--- a/officescripts/filer/dag_til_dag.xlsx
+++ b/officescripts/filer/dag_til_dag.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9388EDD4-33DE-4D97-8F16-1E208BBFA027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuehe\Documents\GitHub\dtu\officescripts\filer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44FD4B5-7268-4659-B4D5-BB276EFE14A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="1110" windowWidth="21705" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readings" sheetId="1" r:id="rId1"/>
@@ -33,21 +38,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Date</t>
+    <t>Dato</t>
   </si>
   <si>
-    <t>Reading</t>
+    <t>Måling</t>
   </si>
   <si>
-    <t>Difference</t>
+    <t>Diference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,19 +88,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -103,13 +125,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A01A886C-36F0-448B-B75C-2E745C0B044C}" name="ReadingTable" displayName="ReadingTable" ref="A1:C9" totalsRowShown="0">
-  <autoFilter ref="A1:C9" xr:uid="{A01A886C-36F0-448B-B75C-2E745C0B044C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A01A886C-36F0-448B-B75C-2E745C0B044C}" name="ReadingTable" displayName="ReadingTable" ref="A1:C11" totalsRowShown="0" headerRowDxfId="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BC0C5EF4-F8FA-4A76-93BC-DCF271CBD974}" name="Date" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{B50E75B1-E237-4B8D-82C2-CEF6E5CFAF45}" name="Reading"/>
-    <tableColumn id="3" xr3:uid="{2B9FC9CC-4A61-4065-A40E-C91897D46BA0}" name="Difference" dataDxfId="0">
-      <calculatedColumnFormula>B2-B1</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{BC0C5EF4-F8FA-4A76-93BC-DCF271CBD974}" name="Dato" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B50E75B1-E237-4B8D-82C2-CEF6E5CFAF45}" name="Måling"/>
+    <tableColumn id="4" xr3:uid="{E3A68CB0-EA8A-4F8A-9FEF-0AF74AC9A363}" name="Diference" dataDxfId="1">
+      <calculatedColumnFormula>B1-ReadingTable[[#This Row],[Måling]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -413,31 +434,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44795</v>
       </c>
@@ -445,31 +464,31 @@
         <v>183500</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44798</v>
+        <v>44796</v>
       </c>
       <c r="B3">
         <v>184350</v>
       </c>
       <c r="C3">
-        <f ca="1">ReadingTable[[#This Row],[Reading]]-OFFSET(ReadingTable[[#This Row],[Reading]],-1,0)</f>
+        <f>ReadingTable[[#This Row],[Måling]]-B2</f>
         <v>850</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="B4">
-        <v>184450</v>
+        <v>184900</v>
       </c>
       <c r="C4">
-        <f ca="1">ReadingTable[[#This Row],[Reading]]-OFFSET(ReadingTable[[#This Row],[Reading]],-1,0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <f>ReadingTable[[#This Row],[Måling]]-B3</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44798</v>
       </c>
@@ -477,59 +496,90 @@
         <v>184457</v>
       </c>
       <c r="C5">
-        <f ca="1">ReadingTable[[#This Row],[Reading]]-OFFSET(ReadingTable[[#This Row],[Reading]],-1,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <f>ReadingTable[[#This Row],[Måling]]-B4</f>
+        <v>-443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B6">
         <v>184500</v>
       </c>
       <c r="C6">
-        <f ca="1">ReadingTable[[#This Row],[Reading]]-OFFSET(ReadingTable[[#This Row],[Reading]],-1,0)</f>
+        <f>ReadingTable[[#This Row],[Måling]]-B5</f>
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44798</v>
+        <v>44800</v>
       </c>
       <c r="B7">
         <v>184500</v>
       </c>
       <c r="C7">
+        <f>ReadingTable[[#This Row],[Måling]]-B6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44798</v>
+        <v>44801</v>
       </c>
       <c r="B8">
-        <v>184500</v>
+        <v>184700</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <f>ReadingTable[[#This Row],[Måling]]-B7</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44798</v>
+        <v>44802</v>
       </c>
       <c r="B9">
         <v>184530</v>
       </c>
       <c r="C9">
+        <f>ReadingTable[[#This Row],[Måling]]-B8</f>
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44803</v>
+      </c>
+      <c r="B10">
+        <v>184560</v>
+      </c>
+      <c r="C10">
+        <f>ReadingTable[[#This Row],[Måling]]-B9</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B11">
+        <v>184590</v>
+      </c>
+      <c r="C11">
+        <f>ReadingTable[[#This Row],[Måling]]-B10</f>
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3:C5 C6:C11" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
